--- a/PostAnalysis/Chord/Multivariate/mask_degree.xlsx
+++ b/PostAnalysis/Chord/Multivariate/mask_degree.xlsx
@@ -69,11 +69,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -89,6 +90,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +221,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -257,6 +268,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -327,11 +339,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="5553212"/>
-        <c:axId val="37921404"/>
+        <c:axId val="76242514"/>
+        <c:axId val="20113340"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5553212"/>
+        <c:axId val="76242514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +371,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37921404"/>
+        <c:crossAx val="20113340"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -367,7 +379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37921404"/>
+        <c:axId val="20113340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +394,35 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average degree</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -404,8 +444,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5553212"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="76242514"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -424,7 +464,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -442,9 +482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -452,8 +492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1223640" y="1509120"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="1225080" y="1509120"/>
+        <a:ext cx="5766120" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -474,12 +514,12 @@
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
